--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dhh-Boc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H2">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I2">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J2">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.365025333333334</v>
+        <v>1.336128</v>
       </c>
       <c r="N2">
-        <v>7.095076000000001</v>
+        <v>4.008384</v>
       </c>
       <c r="O2">
-        <v>0.08002875138860946</v>
+        <v>0.0507781635138133</v>
       </c>
       <c r="P2">
-        <v>0.08507379014075959</v>
+        <v>0.05283393562379895</v>
       </c>
       <c r="Q2">
-        <v>6.145512810274223</v>
+        <v>4.553964700864001</v>
       </c>
       <c r="R2">
-        <v>55.30961529246801</v>
+        <v>40.98568230777601</v>
       </c>
       <c r="S2">
-        <v>0.03981824556646041</v>
+        <v>0.03276425758325907</v>
       </c>
       <c r="T2">
-        <v>0.04662601293618357</v>
+        <v>0.03509452031767839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H3">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I3">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J3">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>65.47904199999999</v>
       </c>
       <c r="O3">
-        <v>0.7385693928271263</v>
+        <v>0.8294877689871648</v>
       </c>
       <c r="P3">
-        <v>0.7851290497418185</v>
+        <v>0.863069877969782</v>
       </c>
       <c r="Q3">
-        <v>56.71571261752288</v>
+        <v>74.39138713117089</v>
       </c>
       <c r="R3">
-        <v>510.441413557706</v>
+        <v>669.522484180538</v>
       </c>
       <c r="S3">
-        <v>0.3674746505622455</v>
+        <v>0.5352212259087549</v>
       </c>
       <c r="T3">
-        <v>0.4303021784884203</v>
+        <v>0.5732872823190384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H4">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I4">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J4">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.08121533333333332</v>
+        <v>0.07904066666666666</v>
       </c>
       <c r="N4">
-        <v>0.243646</v>
+        <v>0.237122</v>
       </c>
       <c r="O4">
-        <v>0.002748199619120237</v>
+        <v>0.003003858834064409</v>
       </c>
       <c r="P4">
-        <v>0.002921447025040395</v>
+        <v>0.003125471133251318</v>
       </c>
       <c r="Q4">
-        <v>0.2110378541642222</v>
+        <v>0.2693966490731111</v>
       </c>
       <c r="R4">
-        <v>1.899340687478</v>
+        <v>2.424569841658</v>
       </c>
       <c r="S4">
-        <v>0.001367364670834507</v>
+        <v>0.001938219064505186</v>
       </c>
       <c r="T4">
-        <v>0.001601144448325766</v>
+        <v>0.002076069270501163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.598497666666667</v>
+        <v>3.408329666666667</v>
       </c>
       <c r="H5">
-        <v>7.795493</v>
+        <v>10.224989</v>
       </c>
       <c r="I5">
-        <v>0.4975492541812637</v>
+        <v>0.6452430595357419</v>
       </c>
       <c r="J5">
-        <v>0.5480655423843006</v>
+        <v>0.6642420236790032</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.257505500000001</v>
+        <v>3.071527</v>
       </c>
       <c r="N5">
-        <v>10.515011</v>
+        <v>6.143054</v>
       </c>
       <c r="O5">
-        <v>0.1779057478385349</v>
+        <v>0.1167302086649575</v>
       </c>
       <c r="P5">
-        <v>0.1260806563794072</v>
+        <v>0.08097071527316758</v>
       </c>
       <c r="Q5">
-        <v>13.66161577423717</v>
+        <v>10.46877659606767</v>
       </c>
       <c r="R5">
-        <v>81.96969464542302</v>
+        <v>62.81265957640601</v>
       </c>
       <c r="S5">
-        <v>0.08851687215162299</v>
+        <v>0.07531935697922278</v>
       </c>
       <c r="T5">
-        <v>0.06910046332274843</v>
+        <v>0.05378415177178521</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.598497666666667</v>
+        <v>0.883041</v>
       </c>
       <c r="H6">
-        <v>7.795493</v>
+        <v>2.649123</v>
       </c>
       <c r="I6">
-        <v>0.4975492541812637</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J6">
-        <v>0.5480655423843006</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02210233333333333</v>
+        <v>1.336128</v>
       </c>
       <c r="N6">
-        <v>0.066307</v>
+        <v>4.008384</v>
       </c>
       <c r="O6">
-        <v>0.0007479083266091198</v>
+        <v>0.0507781635138133</v>
       </c>
       <c r="P6">
-        <v>0.0007950567129743708</v>
+        <v>0.05283393562379895</v>
       </c>
       <c r="Q6">
-        <v>0.05743286159455557</v>
+        <v>1.179855805248</v>
       </c>
       <c r="R6">
-        <v>0.5168957543510001</v>
+        <v>10.618702247232</v>
       </c>
       <c r="S6">
-        <v>0.0003721212301003245</v>
+        <v>0.008488669116586434</v>
       </c>
       <c r="T6">
-        <v>0.0004357431886225777</v>
+        <v>0.00909240107226806</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -856,10 +856,10 @@
         <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J7">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.365025333333334</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N7">
-        <v>7.095076000000001</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O7">
-        <v>0.08002875138860946</v>
+        <v>0.8294877689871648</v>
       </c>
       <c r="P7">
-        <v>0.08507379014075959</v>
+        <v>0.863069877969782</v>
       </c>
       <c r="Q7">
-        <v>2.088414335372</v>
+        <v>19.273559575574</v>
       </c>
       <c r="R7">
-        <v>18.795729018348</v>
+        <v>173.462036180166</v>
       </c>
       <c r="S7">
-        <v>0.01353133536900851</v>
+        <v>0.1386668347167003</v>
       </c>
       <c r="T7">
-        <v>0.015844802024393</v>
+        <v>0.1485291109065112</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -918,40 +918,40 @@
         <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J8">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>21.82634733333333</v>
+        <v>0.07904066666666666</v>
       </c>
       <c r="N8">
-        <v>65.47904199999999</v>
+        <v>0.237122</v>
       </c>
       <c r="O8">
-        <v>0.7385693928271263</v>
+        <v>0.003003858834064409</v>
       </c>
       <c r="P8">
-        <v>0.7851290497418185</v>
+        <v>0.003125471133251318</v>
       </c>
       <c r="Q8">
-        <v>19.273559575574</v>
+        <v>0.069796149334</v>
       </c>
       <c r="R8">
-        <v>173.462036180166</v>
+        <v>0.628165344006</v>
       </c>
       <c r="S8">
-        <v>0.1248779966477306</v>
+        <v>0.000502160022159356</v>
       </c>
       <c r="T8">
-        <v>0.1462285192205008</v>
+        <v>0.0005378746964009302</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -980,45 +980,45 @@
         <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.1690809257200836</v>
+        <v>0.1671716448405473</v>
       </c>
       <c r="J9">
-        <v>0.1862477503138962</v>
+        <v>0.172093957508863</v>
       </c>
       <c r="K9">
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08121533333333332</v>
+        <v>3.071527</v>
       </c>
       <c r="N9">
-        <v>0.243646</v>
+        <v>6.143054</v>
       </c>
       <c r="O9">
-        <v>0.002748199619120237</v>
+        <v>0.1167302086649575</v>
       </c>
       <c r="P9">
-        <v>0.002921447025040395</v>
+        <v>0.08097071527316758</v>
       </c>
       <c r="Q9">
-        <v>0.07171646916199999</v>
+        <v>2.712284273607</v>
       </c>
       <c r="R9">
-        <v>0.6454482224579999</v>
+        <v>16.273705641642</v>
       </c>
       <c r="S9">
-        <v>0.0004646681356644308</v>
+        <v>0.01951398098510126</v>
       </c>
       <c r="T9">
-        <v>0.0005441129360749984</v>
+        <v>0.01393457083368275</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,60 +1036,60 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.883041</v>
+        <v>0.204179</v>
       </c>
       <c r="H10">
-        <v>2.649123</v>
+        <v>0.612537</v>
       </c>
       <c r="I10">
-        <v>0.1690809257200836</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J10">
-        <v>0.1862477503138962</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.257505500000001</v>
+        <v>1.336128</v>
       </c>
       <c r="N10">
-        <v>10.515011</v>
+        <v>4.008384</v>
       </c>
       <c r="O10">
-        <v>0.1779057478385349</v>
+        <v>0.0507781635138133</v>
       </c>
       <c r="P10">
-        <v>0.1260806563794072</v>
+        <v>0.05283393562379895</v>
       </c>
       <c r="Q10">
-        <v>4.6425929142255</v>
+        <v>0.272809278912</v>
       </c>
       <c r="R10">
-        <v>27.855557485353</v>
+        <v>2.455283510208</v>
       </c>
       <c r="S10">
-        <v>0.03008046853546324</v>
+        <v>0.001962771798314576</v>
       </c>
       <c r="T10">
-        <v>0.02348223860876397</v>
+        <v>0.002102368246247479</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,46 +1098,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.883041</v>
+        <v>0.204179</v>
       </c>
       <c r="H11">
-        <v>2.649123</v>
+        <v>0.612537</v>
       </c>
       <c r="I11">
-        <v>0.1690809257200836</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J11">
-        <v>0.1862477503138962</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.02210233333333333</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N11">
-        <v>0.066307</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O11">
-        <v>0.0007479083266091198</v>
+        <v>0.8294877689871648</v>
       </c>
       <c r="P11">
-        <v>0.0007950567129743708</v>
+        <v>0.863069877969782</v>
       </c>
       <c r="Q11">
-        <v>0.019517266529</v>
+        <v>4.456481772172666</v>
       </c>
       <c r="R11">
-        <v>0.175655398761</v>
+        <v>40.108335949554</v>
       </c>
       <c r="S11">
-        <v>0.0001264570322168286</v>
+        <v>0.03206290041529345</v>
       </c>
       <c r="T11">
-        <v>0.0001480775241634376</v>
+        <v>0.03434328115657208</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H12">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I12">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J12">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>2.365025333333334</v>
+        <v>0.07904066666666666</v>
       </c>
       <c r="N12">
-        <v>7.095076000000001</v>
+        <v>0.237122</v>
       </c>
       <c r="O12">
-        <v>0.08002875138860946</v>
+        <v>0.003003858834064409</v>
       </c>
       <c r="P12">
-        <v>0.08507379014075959</v>
+        <v>0.003125471133251318</v>
       </c>
       <c r="Q12">
-        <v>0.6045737909853334</v>
+        <v>0.01613844427933333</v>
       </c>
       <c r="R12">
-        <v>5.441164118868</v>
+        <v>0.145245998514</v>
       </c>
       <c r="S12">
-        <v>0.003917178015194102</v>
+        <v>0.0001161107255093197</v>
       </c>
       <c r="T12">
-        <v>0.004586902064907072</v>
+        <v>0.0001243687638925549</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.255631</v>
+        <v>0.204179</v>
       </c>
       <c r="H13">
-        <v>0.7668929999999999</v>
+        <v>0.612537</v>
       </c>
       <c r="I13">
-        <v>0.04894713396405229</v>
+        <v>0.038653855564915</v>
       </c>
       <c r="J13">
-        <v>0.05391674753549563</v>
+        <v>0.03979200529783118</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.82634733333333</v>
+        <v>3.071527</v>
       </c>
       <c r="N13">
-        <v>65.47904199999999</v>
+        <v>6.143054</v>
       </c>
       <c r="O13">
-        <v>0.7385693928271263</v>
+        <v>0.1167302086649575</v>
       </c>
       <c r="P13">
-        <v>0.7851290497418185</v>
+        <v>0.08097071527316758</v>
       </c>
       <c r="Q13">
-        <v>5.579490995167332</v>
+        <v>0.627141311333</v>
       </c>
       <c r="R13">
-        <v>50.21541895650599</v>
+        <v>3.762847867998</v>
       </c>
       <c r="S13">
-        <v>0.03615085501245811</v>
+        <v>0.004512072625797659</v>
       </c>
       <c r="T13">
-        <v>0.04233160475771322</v>
+        <v>0.003221987131119065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.255631</v>
+        <v>0.4532555</v>
       </c>
       <c r="H14">
-        <v>0.7668929999999999</v>
+        <v>0.906511</v>
       </c>
       <c r="I14">
-        <v>0.04894713396405229</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J14">
-        <v>0.05391674753549563</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08121533333333332</v>
+        <v>1.336128</v>
       </c>
       <c r="N14">
-        <v>0.243646</v>
+        <v>4.008384</v>
       </c>
       <c r="O14">
-        <v>0.002748199619120237</v>
+        <v>0.0507781635138133</v>
       </c>
       <c r="P14">
-        <v>0.002921447025040395</v>
+        <v>0.05283393562379895</v>
       </c>
       <c r="Q14">
-        <v>0.02076115687533333</v>
+        <v>0.6056073647040001</v>
       </c>
       <c r="R14">
-        <v>0.186850411878</v>
+        <v>3.633644188224</v>
       </c>
       <c r="S14">
-        <v>0.0001345164949170357</v>
+        <v>0.004357143059917878</v>
       </c>
       <c r="T14">
-        <v>0.0001575149216874278</v>
+        <v>0.003111354810034412</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,87 +1337,87 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.255631</v>
+        <v>0.4532555</v>
       </c>
       <c r="H15">
-        <v>0.7668929999999999</v>
+        <v>0.906511</v>
       </c>
       <c r="I15">
-        <v>0.04894713396405229</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J15">
-        <v>0.05391674753549563</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.257505500000001</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N15">
-        <v>10.515011</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O15">
-        <v>0.1779057478385349</v>
+        <v>0.8294877689871648</v>
       </c>
       <c r="P15">
-        <v>0.1260806563794072</v>
+        <v>0.863069877969782</v>
       </c>
       <c r="Q15">
-        <v>1.3439813884705</v>
+        <v>9.892911973743665</v>
       </c>
       <c r="R15">
-        <v>8.063888330823</v>
+        <v>59.35747184246199</v>
       </c>
       <c r="S15">
-        <v>0.008707976472427671</v>
+        <v>0.0711762030335345</v>
       </c>
       <c r="T15">
-        <v>0.006797858919118074</v>
+        <v>0.05082560260772052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.255631</v>
+        <v>0.4532555</v>
       </c>
       <c r="H16">
-        <v>0.7668929999999999</v>
+        <v>0.906511</v>
       </c>
       <c r="I16">
-        <v>0.04894713396405229</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J16">
-        <v>0.05391674753549563</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02210233333333333</v>
+        <v>0.07904066666666666</v>
       </c>
       <c r="N16">
-        <v>0.066307</v>
+        <v>0.237122</v>
       </c>
       <c r="O16">
-        <v>0.0007479083266091198</v>
+        <v>0.003003858834064409</v>
       </c>
       <c r="P16">
-        <v>0.0007950567129743708</v>
+        <v>0.003125471133251318</v>
       </c>
       <c r="Q16">
-        <v>0.005650041572333333</v>
+        <v>0.03582561689033333</v>
       </c>
       <c r="R16">
-        <v>0.050850374151</v>
+        <v>0.214953701342</v>
       </c>
       <c r="S16">
-        <v>3.660796905536676E-05</v>
+        <v>0.0002577533681039159</v>
       </c>
       <c r="T16">
-        <v>4.286687206984016E-05</v>
+        <v>0.0001840568855840607</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4441305</v>
+        <v>0.4532555</v>
       </c>
       <c r="H17">
-        <v>2.888261</v>
+        <v>0.906511</v>
       </c>
       <c r="I17">
-        <v>0.2765159509021747</v>
+        <v>0.08580741717318301</v>
       </c>
       <c r="J17">
-        <v>0.203060451919131</v>
+        <v>0.0588893250767582</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.365025333333334</v>
+        <v>3.071527</v>
       </c>
       <c r="N17">
-        <v>7.095076000000001</v>
+        <v>6.143054</v>
       </c>
       <c r="O17">
-        <v>0.08002875138860946</v>
+        <v>0.1167302086649575</v>
       </c>
       <c r="P17">
-        <v>0.08507379014075959</v>
+        <v>0.08097071527316758</v>
       </c>
       <c r="Q17">
-        <v>3.415405217139333</v>
+        <v>1.3921865061485</v>
       </c>
       <c r="R17">
-        <v>20.492431302836</v>
+        <v>5.568746024594</v>
       </c>
       <c r="S17">
-        <v>0.02212922628973508</v>
+        <v>0.01001631771162671</v>
       </c>
       <c r="T17">
-        <v>0.01727512227245596</v>
+        <v>0.004768310773419196</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.4441305</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H18">
-        <v>2.888261</v>
+        <v>1.000309</v>
       </c>
       <c r="I18">
-        <v>0.2765159509021747</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J18">
-        <v>0.203060451919131</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.82634733333333</v>
+        <v>1.336128</v>
       </c>
       <c r="N18">
-        <v>65.47904199999999</v>
+        <v>4.008384</v>
       </c>
       <c r="O18">
-        <v>0.7385693928271263</v>
+        <v>0.0507781635138133</v>
       </c>
       <c r="P18">
-        <v>0.7851290497418185</v>
+        <v>0.05283393562379895</v>
       </c>
       <c r="Q18">
-        <v>31.52009388766033</v>
+        <v>0.4455136211840001</v>
       </c>
       <c r="R18">
-        <v>189.120563325962</v>
+        <v>4.009622590656001</v>
       </c>
       <c r="S18">
-        <v>0.2042262179648346</v>
+        <v>0.003205321955735336</v>
       </c>
       <c r="T18">
-        <v>0.1594286596554116</v>
+        <v>0.003433291177570612</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,60 +1585,60 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.4441305</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H19">
-        <v>2.888261</v>
+        <v>1.000309</v>
       </c>
       <c r="I19">
-        <v>0.2765159509021747</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J19">
-        <v>0.203060451919131</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08121533333333332</v>
+        <v>21.82634733333333</v>
       </c>
       <c r="N19">
-        <v>0.243646</v>
+        <v>65.47904199999999</v>
       </c>
       <c r="O19">
-        <v>0.002748199619120237</v>
+        <v>0.8294877689871648</v>
       </c>
       <c r="P19">
-        <v>0.002921447025040395</v>
+        <v>0.863069877969782</v>
       </c>
       <c r="Q19">
-        <v>0.1172855399343333</v>
+        <v>7.277697224886444</v>
       </c>
       <c r="R19">
-        <v>0.703713239606</v>
+        <v>65.499275023978</v>
       </c>
       <c r="S19">
-        <v>0.0007599210309500266</v>
+        <v>0.05236060491288164</v>
       </c>
       <c r="T19">
-        <v>0.0005932303531625035</v>
+        <v>0.05608460097993991</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,427 +1647,117 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.4441305</v>
+        <v>0.3334363333333334</v>
       </c>
       <c r="H20">
-        <v>2.888261</v>
+        <v>1.000309</v>
       </c>
       <c r="I20">
-        <v>0.2765159509021747</v>
+        <v>0.06312402288561274</v>
       </c>
       <c r="J20">
-        <v>0.203060451919131</v>
+        <v>0.06498268843754453</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>5.257505500000001</v>
+        <v>0.07904066666666666</v>
       </c>
       <c r="N20">
-        <v>10.515011</v>
+        <v>0.237122</v>
       </c>
       <c r="O20">
-        <v>0.1779057478385349</v>
+        <v>0.003003858834064409</v>
       </c>
       <c r="P20">
-        <v>0.1260806563794072</v>
+        <v>0.003125471133251318</v>
       </c>
       <c r="Q20">
-        <v>7.592524046467751</v>
+        <v>0.02635503007755556</v>
       </c>
       <c r="R20">
-        <v>30.370096185871</v>
+        <v>0.237195270698</v>
       </c>
       <c r="S20">
-        <v>0.04919377703453497</v>
+        <v>0.0001896156537866318</v>
       </c>
       <c r="T20">
-        <v>0.02560199506266309</v>
+        <v>0.0002031015168726096</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3334363333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.000309</v>
+      </c>
+      <c r="I21">
+        <v>0.06312402288561274</v>
+      </c>
+      <c r="J21">
+        <v>0.06498268843754453</v>
+      </c>
+      <c r="K21">
         <v>2</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.4441305</v>
-      </c>
-      <c r="H21">
-        <v>2.888261</v>
-      </c>
-      <c r="I21">
-        <v>0.2765159509021747</v>
-      </c>
-      <c r="J21">
-        <v>0.203060451919131</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.02210233333333333</v>
+        <v>3.071527</v>
       </c>
       <c r="N21">
-        <v>0.066307</v>
+        <v>6.143054</v>
       </c>
       <c r="O21">
-        <v>0.0007479083266091198</v>
+        <v>0.1167302086649575</v>
       </c>
       <c r="P21">
-        <v>0.0007950567129743708</v>
+        <v>0.08097071527316758</v>
       </c>
       <c r="Q21">
-        <v>0.03191865368783334</v>
+        <v>1.024158700614334</v>
       </c>
       <c r="R21">
-        <v>0.191511922127</v>
+        <v>6.144952203686001</v>
       </c>
       <c r="S21">
-        <v>0.000206808582119975</v>
+        <v>0.00736848036320913</v>
       </c>
       <c r="T21">
-        <v>0.0001614445754379146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.123881</v>
-      </c>
-      <c r="I22">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J22">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>2.365025333333334</v>
-      </c>
-      <c r="N22">
-        <v>7.095076000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.08002875138860946</v>
-      </c>
-      <c r="P22">
-        <v>0.08507379014075959</v>
-      </c>
-      <c r="Q22">
-        <v>0.0976605677728889</v>
-      </c>
-      <c r="R22">
-        <v>0.8789451099560001</v>
-      </c>
-      <c r="S22">
-        <v>0.000632766148211368</v>
-      </c>
-      <c r="T22">
-        <v>0.0007409508428199931</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.123881</v>
-      </c>
-      <c r="I23">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J23">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>21.82634733333333</v>
-      </c>
-      <c r="N23">
-        <v>65.47904199999999</v>
-      </c>
-      <c r="O23">
-        <v>0.7385693928271263</v>
-      </c>
-      <c r="P23">
-        <v>0.7851290497418185</v>
-      </c>
-      <c r="Q23">
-        <v>0.9012899113335554</v>
-      </c>
-      <c r="R23">
-        <v>8.111609202001999</v>
-      </c>
-      <c r="S23">
-        <v>0.005839672639857611</v>
-      </c>
-      <c r="T23">
-        <v>0.006838087619772603</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.123881</v>
-      </c>
-      <c r="I24">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J24">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.08121533333333332</v>
-      </c>
-      <c r="N24">
-        <v>0.243646</v>
-      </c>
-      <c r="O24">
-        <v>0.002748199619120237</v>
-      </c>
-      <c r="P24">
-        <v>0.002921447025040395</v>
-      </c>
-      <c r="Q24">
-        <v>0.003353678902888888</v>
-      </c>
-      <c r="R24">
-        <v>0.03018311012599999</v>
-      </c>
-      <c r="S24">
-        <v>2.172928675423729E-05</v>
-      </c>
-      <c r="T24">
-        <v>2.544436578969978E-05</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.123881</v>
-      </c>
-      <c r="I25">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J25">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.257505500000001</v>
-      </c>
-      <c r="N25">
-        <v>10.515011</v>
-      </c>
-      <c r="O25">
-        <v>0.1779057478385349</v>
-      </c>
-      <c r="P25">
-        <v>0.1260806563794072</v>
-      </c>
-      <c r="Q25">
-        <v>0.2171016796151667</v>
-      </c>
-      <c r="R25">
-        <v>1.302610077691</v>
-      </c>
-      <c r="S25">
-        <v>0.001406653644486013</v>
-      </c>
-      <c r="T25">
-        <v>0.001098100466113612</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.04129366666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.123881</v>
-      </c>
-      <c r="I26">
-        <v>0.007906735232425854</v>
-      </c>
-      <c r="J26">
-        <v>0.008709507847176508</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.02210233333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.066307</v>
-      </c>
-      <c r="O26">
-        <v>0.0007479083266091198</v>
-      </c>
-      <c r="P26">
-        <v>0.0007950567129743708</v>
-      </c>
-      <c r="Q26">
-        <v>0.0009126863852222223</v>
-      </c>
-      <c r="R26">
-        <v>0.008214177467000001</v>
-      </c>
-      <c r="S26">
-        <v>5.913513116624991E-06</v>
-      </c>
-      <c r="T26">
-        <v>6.924552680600643E-06</v>
+        <v>0.005261694763161377</v>
       </c>
     </row>
   </sheetData>
